--- a/1117-E.212A/T-SP-E.212A-2017.xlsx
+++ b/1117-E.212A/T-SP-E.212A-2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulgogi/src/ituob/service-publications-data/1117-E.212A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A6EDFF-C700-5443-8366-8909D93F067F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A091CB-F79E-AC4F-BE0B-124A78B0913B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15340" yWindow="460" windowWidth="25600" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,9 +319,6 @@
     <t>Venezuela (Bolivarian Republic of)</t>
   </si>
   <si>
-    <t>under_mcc</t>
-  </si>
-  <si>
     <t>locale.country_or_area.en</t>
   </si>
   <si>
@@ -3217,6 +3214,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>共和国</t>
     </r>
@@ -3367,6 +3365,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>丹麦</t>
     </r>
@@ -3427,6 +3426,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>维京群岛</t>
     </r>
@@ -3549,6 +3549,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>（联邦共和国）</t>
     </r>
@@ -3818,6 +3819,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>（共和国）</t>
     </r>
@@ -3874,6 +3876,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>（共和国）</t>
     </r>
@@ -3951,6 +3954,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>达库尼亚</t>
     </r>
@@ -4939,6 +4943,9 @@
   </si>
   <si>
     <t>List of Mobile Country or Geographical Area Codes</t>
+  </si>
+  <si>
+    <t>type=array</t>
   </si>
 </sst>
 </file>
@@ -4980,6 +4987,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
@@ -5339,8 +5347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A24" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5366,52 +5374,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -5419,138 +5427,138 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
         <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
         <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B16" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B20" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B21" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B22" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B24" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B25" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -5558,130 +5566,130 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" t="s">
         <v>245</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>377</v>
+      </c>
+      <c r="D28" t="s">
+        <v>589</v>
+      </c>
+      <c r="E28" t="s">
+        <v>795</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H28" t="s">
         <v>246</v>
       </c>
-      <c r="C28" t="s">
-        <v>378</v>
-      </c>
-      <c r="D28" t="s">
-        <v>590</v>
-      </c>
-      <c r="E28" t="s">
-        <v>796</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H28" t="s">
-        <v>247</v>
-      </c>
       <c r="I28" t="s">
+        <v>372</v>
+      </c>
+      <c r="J28" t="s">
         <v>373</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>374</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>375</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>376</v>
-      </c>
-      <c r="M28" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
         <v>95</v>
       </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
       <c r="C29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D29" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E29" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F29" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G29" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L29" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M29" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G30" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K30" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L30" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M30" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -5692,19 +5700,19 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D31" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E31" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F31" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G31" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -5712,22 +5720,22 @@
         <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E32" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F32" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G32" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -5738,19 +5746,19 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E33" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F33" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G33" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -5764,16 +5772,16 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E34" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F34" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G34" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -5781,22 +5789,22 @@
         <v>212</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E35" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G35" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -5804,22 +5812,22 @@
         <v>213</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F36" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G36" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -5830,19 +5838,19 @@
         <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E37" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G37" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -5853,19 +5861,19 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E38" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F38" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G38" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -5876,19 +5884,19 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E39" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F39" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G39" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -5896,22 +5904,22 @@
         <v>219</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E40" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G40" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -5919,22 +5927,22 @@
         <v>220</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E41" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F41" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G41" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -5951,31 +5959,31 @@
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F42" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G42" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J42" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K42" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L42" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="M42" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -5986,19 +5994,19 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D43" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E43" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F43" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G43" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -6006,22 +6014,22 @@
         <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D44" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E44" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F44" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G44" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -6032,19 +6040,19 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E45" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F45" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G45" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -6052,22 +6060,22 @@
         <v>228</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D46" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E46" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F46" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G46" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -6075,22 +6083,22 @@
         <v>230</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D47" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E47" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F47" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G47" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -6098,22 +6106,22 @@
         <v>231</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D48" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E48" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F48" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G48" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -6124,19 +6132,19 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F49" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G49" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -6144,22 +6152,22 @@
         <v>234</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D50" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E50" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F50" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G50" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -6167,22 +6175,22 @@
         <v>235</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D51" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E51" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F51" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G51" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -6193,19 +6201,19 @@
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D52" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E52" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F52" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G52" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -6216,19 +6224,19 @@
         <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D53" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E53" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F53" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G53" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -6239,19 +6247,19 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E54" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F54" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G54" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -6262,19 +6270,19 @@
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E55" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F55" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G55" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -6282,22 +6290,22 @@
         <v>246</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D56" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E56" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F56" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G56" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -6305,22 +6313,22 @@
         <v>247</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D57" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E57" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F57" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G57" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -6328,22 +6336,22 @@
         <v>248</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E58" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F58" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G58" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -6354,19 +6362,19 @@
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D59" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E59" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F59" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G59" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -6380,16 +6388,16 @@
         <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E60" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F60" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G60" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -6397,22 +6405,22 @@
         <v>257</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D61" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E61" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F61" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G61" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -6423,19 +6431,19 @@
         <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D62" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E62" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F62" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G62" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -6443,22 +6451,22 @@
         <v>260</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E63" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F63" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G63" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -6466,22 +6474,22 @@
         <v>262</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D64" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E64" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F64" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G64" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -6498,13 +6506,13 @@
         <v>35</v>
       </c>
       <c r="E65" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F65" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G65" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -6521,13 +6529,13 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F66" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G66" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -6541,16 +6549,16 @@
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E67" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F67" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G67" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -6561,19 +6569,19 @@
         <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D68" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E68" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F68" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G68" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -6584,19 +6592,19 @@
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D69" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E69" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F69" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G69" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -6604,22 +6612,22 @@
         <v>276</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D70" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E70" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F70" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G70" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -6630,19 +6638,19 @@
         <v>53</v>
       </c>
       <c r="C71" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D71" t="s">
         <v>53</v>
       </c>
       <c r="E71" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F71" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G71" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -6650,22 +6658,22 @@
         <v>280</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D72" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E72" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F72" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G72" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -6676,19 +6684,19 @@
         <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D73" t="s">
         <v>33</v>
       </c>
       <c r="E73" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F73" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G73" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -6696,22 +6704,22 @@
         <v>283</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C74" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D74" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E74" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F74" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G74" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -6719,22 +6727,22 @@
         <v>284</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D75" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E75" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F75" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G75" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -6745,19 +6753,19 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D76" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E76" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F76" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="G76" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -6768,19 +6776,19 @@
         <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D77" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E77" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F77" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G77" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -6788,22 +6796,22 @@
         <v>290</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D78" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E78" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F78" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="G78" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -6811,22 +6819,22 @@
         <v>292</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D79" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E79" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F79" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G79" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -6834,22 +6842,22 @@
         <v>293</v>
       </c>
       <c r="B80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D80" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E80" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F80" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G80" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -6860,19 +6868,19 @@
         <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D81" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E81" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F81" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G81" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -6880,22 +6888,22 @@
         <v>295</v>
       </c>
       <c r="B82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D82" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E82" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F82" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G82" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -6906,19 +6914,19 @@
         <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D83" t="s">
         <v>57</v>
       </c>
       <c r="E83" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F83" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="G83" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -6932,16 +6940,16 @@
         <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E84" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F84" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G84" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -6949,22 +6957,22 @@
         <v>308</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D85" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E85" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F85" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G85" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -6972,22 +6980,22 @@
         <v>310</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D86" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E86" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F86" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G86" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -6995,22 +7003,22 @@
         <v>311</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D87" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E87" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F87" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G87" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -7018,22 +7026,22 @@
         <v>312</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D88" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E88" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F88" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G88" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -7041,22 +7049,22 @@
         <v>313</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D89" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E89" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F89" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G89" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -7064,22 +7072,22 @@
         <v>314</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D90" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E90" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F90" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G90" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -7087,22 +7095,22 @@
         <v>315</v>
       </c>
       <c r="B91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D91" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E91" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F91" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G91" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -7110,22 +7118,22 @@
         <v>316</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D92" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E92" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F92" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G92" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -7133,22 +7141,22 @@
         <v>330</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E93" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F93" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G93" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -7156,22 +7164,22 @@
         <v>332</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D94" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E94" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F94" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G94" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -7182,19 +7190,19 @@
         <v>54</v>
       </c>
       <c r="C95" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D95" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E95" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F95" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G95" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -7205,19 +7213,19 @@
         <v>45</v>
       </c>
       <c r="C96" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D96" t="s">
         <v>45</v>
       </c>
       <c r="E96" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F96" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G96" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -7225,22 +7233,22 @@
         <v>340</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D97" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E97" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F97" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G97" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -7248,22 +7256,22 @@
         <v>340</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D98" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E98" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F98" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G98" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -7274,19 +7282,19 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F99" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G99" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -7297,19 +7305,19 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D100" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E100" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F100" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G100" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -7320,19 +7328,19 @@
         <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D101" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E101" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F101" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G101" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -7343,19 +7351,19 @@
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D102" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E102" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F102" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G102" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -7366,19 +7374,19 @@
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D103" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E103" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F103" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G103" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -7389,19 +7397,19 @@
         <v>37</v>
       </c>
       <c r="C104" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D104" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E104" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F104" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G104" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -7418,13 +7426,13 @@
         <v>58</v>
       </c>
       <c r="E105" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F105" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G105" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -7435,19 +7443,19 @@
         <v>69</v>
       </c>
       <c r="C106" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D106" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E106" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F106" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G106" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -7458,19 +7466,19 @@
         <v>70</v>
       </c>
       <c r="C107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D107" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E107" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F107" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G107" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -7481,19 +7489,19 @@
         <v>71</v>
       </c>
       <c r="C108" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D108" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E108" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F108" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G108" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -7504,19 +7512,19 @@
         <v>25</v>
       </c>
       <c r="C109" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D109" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E109" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F109" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G109" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -7524,7 +7532,7 @@
         <v>362</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C110" t="s">
         <v>25</v>
@@ -7533,13 +7541,13 @@
         <v>25</v>
       </c>
       <c r="E110" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F110" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G110" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -7547,22 +7555,22 @@
         <v>362</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C111" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D111" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E111" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F111" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G111" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -7579,13 +7587,13 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F112" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G112" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -7593,22 +7601,22 @@
         <v>364</v>
       </c>
       <c r="B113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D113" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E113" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F113" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G113" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -7622,16 +7630,16 @@
         <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E114" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F114" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G114" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -7639,22 +7647,22 @@
         <v>366</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D115" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E115" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F115" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G115" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -7671,13 +7679,13 @@
         <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F116" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G116" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -7685,22 +7693,22 @@
         <v>370</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D117" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E117" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F117" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G117" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -7708,22 +7716,22 @@
         <v>372</v>
       </c>
       <c r="B118" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C118" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D118" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E118" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F118" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G118" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -7734,19 +7742,19 @@
         <v>80</v>
       </c>
       <c r="C119" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D119" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E119" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F119" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G119" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -7757,19 +7765,19 @@
         <v>84</v>
       </c>
       <c r="C120" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D120" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E120" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F120" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G120" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -7777,22 +7785,22 @@
         <v>400</v>
       </c>
       <c r="B121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C121" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D121" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E121" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F121" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G121" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -7800,22 +7808,22 @@
         <v>401</v>
       </c>
       <c r="B122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D122" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E122" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F122" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G122" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -7823,22 +7831,22 @@
         <v>402</v>
       </c>
       <c r="B123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C123" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D123" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E123" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F123" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G123" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -7846,22 +7854,22 @@
         <v>404</v>
       </c>
       <c r="B124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C124" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D124" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E124" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F124" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G124" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -7869,22 +7877,22 @@
         <v>405</v>
       </c>
       <c r="B125" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C125" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D125" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E125" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F125" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G125" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -7892,22 +7900,22 @@
         <v>406</v>
       </c>
       <c r="B126" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C126" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D126" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E126" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F126" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G126" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -7915,22 +7923,22 @@
         <v>410</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C127" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D127" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E127" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F127" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G127" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -7944,16 +7952,16 @@
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E128" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F128" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G128" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -7961,22 +7969,22 @@
         <v>413</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C129" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D129" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E129" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F129" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G129" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -7984,22 +7992,22 @@
         <v>414</v>
       </c>
       <c r="B130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C130" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D130" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E130" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F130" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G130" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -8010,19 +8018,19 @@
         <v>48</v>
       </c>
       <c r="C131" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D131" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E131" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F131" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G131" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -8030,22 +8038,22 @@
         <v>416</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C132" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D132" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E132" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F132" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G132" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -8056,19 +8064,19 @@
         <v>76</v>
       </c>
       <c r="C133" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D133" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E133" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F133" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G133" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -8076,22 +8084,22 @@
         <v>418</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D134" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E134" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F134" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G134" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -8099,22 +8107,22 @@
         <v>419</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D135" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E135" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F135" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G135" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -8122,22 +8130,22 @@
         <v>420</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D136" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E136" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F136" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G136" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -8145,22 +8153,22 @@
         <v>421</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D137" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E137" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F137" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G137" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -8168,22 +8176,22 @@
         <v>422</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D138" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E138" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F138" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G138" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -8194,19 +8202,19 @@
         <v>87</v>
       </c>
       <c r="C139" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D139" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E139" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F139" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G139" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -8214,22 +8222,22 @@
         <v>425</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C140" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D140" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E140" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F140" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G140" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -8237,22 +8245,22 @@
         <v>426</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C141" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D141" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E141" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F141" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G141" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -8260,22 +8268,22 @@
         <v>427</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C142" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D142" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E142" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F142" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G142" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -8286,19 +8294,19 @@
         <v>56</v>
       </c>
       <c r="C143" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D143" t="s">
         <v>56</v>
       </c>
       <c r="E143" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F143" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G143" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -8306,22 +8314,22 @@
         <v>429</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D144" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E144" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F144" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G144" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -8332,37 +8340,37 @@
         <v>87</v>
       </c>
       <c r="C145" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D145" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E145" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F145" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G145" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H145" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K145" t="s">
         <v>1551</v>
       </c>
-      <c r="I145" t="s">
-        <v>1551</v>
-      </c>
-      <c r="J145" t="s">
-        <v>1551</v>
-      </c>
-      <c r="K145" t="s">
+      <c r="L145" t="s">
         <v>1552</v>
       </c>
-      <c r="L145" t="s">
+      <c r="M145" t="s">
         <v>1553</v>
-      </c>
-      <c r="M145" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -8373,37 +8381,37 @@
         <v>87</v>
       </c>
       <c r="C146" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D146" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E146" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F146" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G146" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H146" t="s">
+        <v>1550</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K146" t="s">
         <v>1551</v>
       </c>
-      <c r="I146" t="s">
-        <v>1551</v>
-      </c>
-      <c r="J146" t="s">
-        <v>1551</v>
-      </c>
-      <c r="K146" t="s">
+      <c r="L146" t="s">
         <v>1552</v>
       </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
         <v>1553</v>
-      </c>
-      <c r="M146" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -8414,19 +8422,19 @@
         <v>42</v>
       </c>
       <c r="C147" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D147" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E147" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F147" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G147" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -8434,22 +8442,22 @@
         <v>434</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D148" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E148" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F148" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G148" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -8457,22 +8465,22 @@
         <v>436</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D149" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E149" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F149" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G149" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -8480,22 +8488,22 @@
         <v>437</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D150" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E150" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F150" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G150" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -8506,19 +8514,19 @@
         <v>83</v>
       </c>
       <c r="C151" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D151" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E151" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F151" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G151" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -8529,19 +8537,19 @@
         <v>46</v>
       </c>
       <c r="C152" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D152" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E152" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F152" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G152" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -8552,19 +8560,19 @@
         <v>46</v>
       </c>
       <c r="C153" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D153" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E153" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F153" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G153" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -8572,22 +8580,22 @@
         <v>450</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D154" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E154" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F154" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G154" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -8595,22 +8603,22 @@
         <v>452</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D155" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E155" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F155" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G155" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -8621,19 +8629,19 @@
         <v>39</v>
       </c>
       <c r="C156" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D156" t="s">
         <v>39</v>
       </c>
       <c r="E156" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F156" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G156" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -8644,19 +8652,19 @@
         <v>50</v>
       </c>
       <c r="C157" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D157" t="s">
         <v>50</v>
       </c>
       <c r="E157" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F157" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G157" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
@@ -8664,22 +8672,22 @@
         <v>456</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C158" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D158" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E158" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F158" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G158" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -8687,22 +8695,22 @@
         <v>457</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D159" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E159" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F159" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G159" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -8710,22 +8718,22 @@
         <v>460</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D160" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E160" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F160" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G160" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -8733,22 +8741,22 @@
         <v>461</v>
       </c>
       <c r="B161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C161" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D161" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E161" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F161" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G161" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8756,22 +8764,22 @@
         <v>466</v>
       </c>
       <c r="B162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C162" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D162" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E162" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F162" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G162" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -8779,22 +8787,22 @@
         <v>467</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C163" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D163" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E163" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F163" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G163" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -8802,22 +8810,22 @@
         <v>470</v>
       </c>
       <c r="B164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C164" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D164" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E164" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F164" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G164" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -8825,22 +8833,22 @@
         <v>472</v>
       </c>
       <c r="B165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D165" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E165" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F165" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G165" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -8851,19 +8859,19 @@
         <v>52</v>
       </c>
       <c r="C166" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D166" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E166" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F166" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G166" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -8874,19 +8882,19 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D167" t="s">
         <v>8</v>
       </c>
       <c r="E167" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F167" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G167" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -8894,22 +8902,22 @@
         <v>510</v>
       </c>
       <c r="B168" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C168" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D168" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E168" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F168" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G168" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -8917,22 +8925,22 @@
         <v>514</v>
       </c>
       <c r="B169" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C169" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D169" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E169" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F169" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G169" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -8940,22 +8948,22 @@
         <v>515</v>
       </c>
       <c r="B170" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C170" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D170" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E170" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F170" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G170" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -8966,19 +8974,19 @@
         <v>77</v>
       </c>
       <c r="C171" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D171" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E171" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F171" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G171" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -8986,22 +8994,22 @@
         <v>525</v>
       </c>
       <c r="B172" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C172" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D172" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E172" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F172" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G172" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -9012,19 +9020,19 @@
         <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D173" t="s">
         <v>17</v>
       </c>
       <c r="E173" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F173" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G173" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -9035,19 +9043,19 @@
         <v>59</v>
       </c>
       <c r="C174" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D174" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E174" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F174" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G174" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -9055,22 +9063,22 @@
         <v>536</v>
       </c>
       <c r="B175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C175" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D175" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E175" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F175" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G175" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -9081,19 +9089,19 @@
         <v>63</v>
       </c>
       <c r="C176" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D176" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E176" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F176" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G176" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -9101,22 +9109,22 @@
         <v>539</v>
       </c>
       <c r="B177" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D177" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E177" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F177" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="G177" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -9127,19 +9135,19 @@
         <v>73</v>
       </c>
       <c r="C178" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D178" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E178" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F178" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="G178" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -9147,22 +9155,22 @@
         <v>541</v>
       </c>
       <c r="B179" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C179" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D179" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E179" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F179" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G179" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -9170,22 +9178,22 @@
         <v>542</v>
       </c>
       <c r="B180" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C180" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D180" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E180" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F180" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G180" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -9193,22 +9201,22 @@
         <v>543</v>
       </c>
       <c r="B181" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C181" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D181" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E181" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F181" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G181" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -9216,22 +9224,22 @@
         <v>544</v>
       </c>
       <c r="B182" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C182" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D182" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E182" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F182" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G182" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -9239,22 +9247,22 @@
         <v>545</v>
       </c>
       <c r="B183" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C183" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D183" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E183" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F183" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G183" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -9262,22 +9270,22 @@
         <v>546</v>
       </c>
       <c r="B184" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C184" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D184" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E184" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F184" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G184" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -9285,22 +9293,22 @@
         <v>547</v>
       </c>
       <c r="B185" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C185" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D185" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E185" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F185" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G185" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -9311,19 +9319,19 @@
         <v>22</v>
       </c>
       <c r="C186" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D186" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E186" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F186" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G186" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -9331,22 +9339,22 @@
         <v>549</v>
       </c>
       <c r="B187" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C187" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D187" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E187" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F187" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G187" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -9354,22 +9362,22 @@
         <v>550</v>
       </c>
       <c r="B188" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C188" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D188" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E188" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F188" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G188" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -9377,22 +9385,22 @@
         <v>551</v>
       </c>
       <c r="B189" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C189" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D189" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E189" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F189" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G189" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -9400,22 +9408,22 @@
         <v>552</v>
       </c>
       <c r="B190" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C190" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D190" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E190" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F190" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G190" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -9432,13 +9440,13 @@
         <v>85</v>
       </c>
       <c r="E191" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F191" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G191" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -9449,19 +9457,19 @@
         <v>79</v>
       </c>
       <c r="C192" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D192" t="s">
         <v>79</v>
       </c>
       <c r="E192" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F192" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G192" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -9478,13 +9486,13 @@
         <v>61</v>
       </c>
       <c r="E193" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F193" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G193" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -9492,22 +9500,22 @@
         <v>602</v>
       </c>
       <c r="B194" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C194" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D194" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E194" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F194" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G194" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -9515,22 +9523,22 @@
         <v>603</v>
       </c>
       <c r="B195" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C195" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D195" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E195" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F195" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G195" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -9538,22 +9546,22 @@
         <v>604</v>
       </c>
       <c r="B196" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C196" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D196" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E196" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F196" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G196" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -9564,19 +9572,19 @@
         <v>81</v>
       </c>
       <c r="C197" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D197" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E197" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F197" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G197" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -9584,22 +9592,22 @@
         <v>606</v>
       </c>
       <c r="B198" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C198" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D198" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E198" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F198" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G198" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -9607,22 +9615,22 @@
         <v>607</v>
       </c>
       <c r="B199" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C199" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D199" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E199" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F199" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G199" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -9630,22 +9638,22 @@
         <v>608</v>
       </c>
       <c r="B200" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C200" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D200" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E200" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F200" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G200" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -9653,22 +9661,22 @@
         <v>609</v>
       </c>
       <c r="B201" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C201" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D201" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E201" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F201" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G201" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -9676,22 +9684,22 @@
         <v>610</v>
       </c>
       <c r="B202" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C202" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D202" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E202" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F202" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G202" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -9699,22 +9707,22 @@
         <v>611</v>
       </c>
       <c r="B203" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C203" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D203" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E203" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F203" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G203" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -9722,22 +9730,22 @@
         <v>612</v>
       </c>
       <c r="B204" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C204" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D204" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E204" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F204" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G204" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -9754,13 +9762,13 @@
         <v>18</v>
       </c>
       <c r="E205" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F205" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G205" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -9768,22 +9776,22 @@
         <v>614</v>
       </c>
       <c r="B206" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C206" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D206" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E206" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F206" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G206" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -9791,22 +9799,22 @@
         <v>615</v>
       </c>
       <c r="B207" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C207" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D207" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E207" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F207" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G207" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -9814,22 +9822,22 @@
         <v>616</v>
       </c>
       <c r="B208" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C208" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D208" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E208" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F208" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G208" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -9837,22 +9845,22 @@
         <v>617</v>
       </c>
       <c r="B209" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C209" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D209" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E209" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F209" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G209" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -9860,22 +9868,22 @@
         <v>618</v>
       </c>
       <c r="B210" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C210" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D210" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E210" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F210" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G210" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -9889,16 +9897,16 @@
         <v>72</v>
       </c>
       <c r="D211" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E211" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F211" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G211" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -9915,13 +9923,13 @@
         <v>34</v>
       </c>
       <c r="E212" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F212" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G212" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -9929,22 +9937,22 @@
         <v>621</v>
       </c>
       <c r="B213" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C213" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D213" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E213" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F213" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G213" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -9952,22 +9960,22 @@
         <v>622</v>
       </c>
       <c r="B214" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C214" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D214" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E214" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F214" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G214" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -9975,22 +9983,22 @@
         <v>623</v>
       </c>
       <c r="B215" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C215" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D215" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E215" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F215" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G215" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -9998,22 +10006,22 @@
         <v>624</v>
       </c>
       <c r="B216" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C216" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D216" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E216" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F216" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G216" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -10021,22 +10029,22 @@
         <v>625</v>
       </c>
       <c r="B217" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C217" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D217" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E217" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F217" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G217" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -10044,22 +10052,22 @@
         <v>626</v>
       </c>
       <c r="B218" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C218" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D218" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E218" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F218" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G218" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -10067,22 +10075,22 @@
         <v>627</v>
       </c>
       <c r="B219" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C219" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D219" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E219" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F219" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G219" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -10090,22 +10098,22 @@
         <v>628</v>
       </c>
       <c r="B220" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C220" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D220" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E220" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F220" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G220" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -10113,22 +10121,22 @@
         <v>629</v>
       </c>
       <c r="B221" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C221" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D221" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E221" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F221" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="G221" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -10136,22 +10144,22 @@
         <v>630</v>
       </c>
       <c r="B222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C222" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D222" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E222" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F222" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G222" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -10159,22 +10167,22 @@
         <v>631</v>
       </c>
       <c r="B223" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C223" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D223" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E223" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F223" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="G223" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -10182,22 +10190,22 @@
         <v>632</v>
       </c>
       <c r="B224" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C224" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D224" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E224" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F224" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G224" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -10205,22 +10213,22 @@
         <v>633</v>
       </c>
       <c r="B225" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C225" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D225" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E225" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F225" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G225" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -10228,22 +10236,22 @@
         <v>634</v>
       </c>
       <c r="B226" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C226" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D226" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E226" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F226" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G226" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -10251,22 +10259,22 @@
         <v>635</v>
       </c>
       <c r="B227" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C227" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D227" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E227" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F227" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="G227" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -10274,22 +10282,22 @@
         <v>636</v>
       </c>
       <c r="B228" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C228" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D228" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E228" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F228" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G228" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -10297,22 +10305,22 @@
         <v>637</v>
       </c>
       <c r="B229" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C229" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D229" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E229" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F229" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G229" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -10320,22 +10328,22 @@
         <v>638</v>
       </c>
       <c r="B230" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C230" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D230" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E230" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F230" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G230" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -10343,22 +10351,22 @@
         <v>639</v>
       </c>
       <c r="B231" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C231" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D231" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E231" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F231" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G231" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -10366,22 +10374,22 @@
         <v>640</v>
       </c>
       <c r="B232" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C232" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D232" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E232" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F232" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G232" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -10389,22 +10397,22 @@
         <v>641</v>
       </c>
       <c r="B233" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C233" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D233" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E233" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F233" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G233" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -10412,22 +10420,22 @@
         <v>642</v>
       </c>
       <c r="B234" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C234" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D234" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E234" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F234" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G234" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -10435,22 +10443,22 @@
         <v>643</v>
       </c>
       <c r="B235" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C235" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D235" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E235" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F235" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="G235" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -10458,22 +10466,22 @@
         <v>645</v>
       </c>
       <c r="B236" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C236" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D236" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E236" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F236" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G236" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -10481,22 +10489,22 @@
         <v>646</v>
       </c>
       <c r="B237" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C237" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D237" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E237" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F237" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G237" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -10507,19 +10515,19 @@
         <v>32</v>
       </c>
       <c r="C238" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D238" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E238" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F238" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G238" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -10527,22 +10535,22 @@
         <v>648</v>
       </c>
       <c r="B239" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C239" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D239" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E239" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F239" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G239" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -10550,22 +10558,22 @@
         <v>649</v>
       </c>
       <c r="B240" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C240" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D240" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E240" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F240" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G240" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -10582,13 +10590,13 @@
         <v>51</v>
       </c>
       <c r="E241" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F241" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G241" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -10596,22 +10604,22 @@
         <v>651</v>
       </c>
       <c r="B242" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C242" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D242" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E242" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F242" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="G242" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -10619,22 +10627,22 @@
         <v>652</v>
       </c>
       <c r="B243" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C243" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D243" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E243" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F243" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G243" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -10642,22 +10650,22 @@
         <v>653</v>
       </c>
       <c r="B244" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C244" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D244" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E244" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F244" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G244" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -10665,22 +10673,22 @@
         <v>654</v>
       </c>
       <c r="B245" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C245" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D245" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E245" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F245" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G245" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -10688,22 +10696,22 @@
         <v>655</v>
       </c>
       <c r="B246" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C246" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D246" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E246" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F246" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G246" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -10711,22 +10719,22 @@
         <v>657</v>
       </c>
       <c r="B247" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C247" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D247" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E247" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F247" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G247" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -10737,19 +10745,19 @@
         <v>68</v>
       </c>
       <c r="C248" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D248" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E248" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F248" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="G248" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -10757,22 +10765,22 @@
         <v>659</v>
       </c>
       <c r="B249" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C249" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D249" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E249" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F249" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G249" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -10786,16 +10794,16 @@
         <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E250" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F250" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G250" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -10803,22 +10811,22 @@
         <v>704</v>
       </c>
       <c r="B251" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C251" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D251" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E251" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F251" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G251" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -10826,22 +10834,22 @@
         <v>706</v>
       </c>
       <c r="B252" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C252" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D252" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E252" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F252" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="G252" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -10849,22 +10857,22 @@
         <v>708</v>
       </c>
       <c r="B253" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C253" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D253" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E253" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F253" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G253" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -10881,13 +10889,13 @@
         <v>60</v>
       </c>
       <c r="E254" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F254" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G254" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -10904,13 +10912,13 @@
         <v>23</v>
       </c>
       <c r="E255" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F255" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G255" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -10918,22 +10926,22 @@
         <v>714</v>
       </c>
       <c r="B256" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C256" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D256" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E256" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F256" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G256" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
@@ -10944,19 +10952,19 @@
         <v>64</v>
       </c>
       <c r="C257" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D257" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E257" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F257" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G257" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
@@ -10964,22 +10972,22 @@
         <v>722</v>
       </c>
       <c r="B258" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C258" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D258" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E258" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F258" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G258" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
@@ -10987,22 +10995,22 @@
         <v>724</v>
       </c>
       <c r="B259" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C259" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D259" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E259" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F259" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G259" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
@@ -11013,19 +11021,19 @@
         <v>21</v>
       </c>
       <c r="C260" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D260" t="s">
         <v>21</v>
       </c>
       <c r="E260" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F260" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G260" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
@@ -11033,22 +11041,22 @@
         <v>732</v>
       </c>
       <c r="B261" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C261" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D261" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E261" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F261" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G261" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
@@ -11059,19 +11067,19 @@
         <v>88</v>
       </c>
       <c r="C262" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D262" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E262" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F262" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G262" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
@@ -11082,19 +11090,19 @@
         <v>14</v>
       </c>
       <c r="C263" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D263" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E263" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F263" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G263" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.2">
@@ -11111,13 +11119,13 @@
         <v>38</v>
       </c>
       <c r="E264" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F264" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G264" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
@@ -11128,19 +11136,19 @@
         <v>27</v>
       </c>
       <c r="C265" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D265" t="s">
         <v>27</v>
       </c>
       <c r="E265" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F265" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G265" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.2">
@@ -11148,22 +11156,22 @@
         <v>742</v>
       </c>
       <c r="B266" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C266" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D266" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E266" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F266" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G266" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
@@ -11171,22 +11179,22 @@
         <v>744</v>
       </c>
       <c r="B267" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C267" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D267" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E267" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F267" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G267" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.2">
@@ -11194,22 +11202,22 @@
         <v>746</v>
       </c>
       <c r="B268" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C268" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D268" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E268" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F268" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G268" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.2">
@@ -11217,22 +11225,22 @@
         <v>748</v>
       </c>
       <c r="B269" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C269" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D269" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E269" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F269" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G269" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
@@ -11243,60 +11251,60 @@
         <v>28</v>
       </c>
       <c r="C270" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D270" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E270" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F270" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G270" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B271" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C271" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D271" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E271" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F271" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G271" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H271" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I271" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J271" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K271" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L271" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M271" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.2">
@@ -11304,40 +11312,40 @@
         <v>901</v>
       </c>
       <c r="B272" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C272" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D272" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E272" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F272" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G272" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H272" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I272" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J272" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K272" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L272" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="M272" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
@@ -11350,8 +11358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11369,239 +11377,239 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B12" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B14" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B15" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B16" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B18" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B19" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B20" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B22" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B23" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B24" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B26" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B27" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B28" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B30" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B31" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11615,13 +11623,13 @@
         <v>347</v>
       </c>
       <c r="B35" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -11629,10 +11637,10 @@
         <v>260</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -11640,10 +11648,10 @@
         <v>263</v>
       </c>
       <c r="B37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -11651,10 +11659,10 @@
         <v>265</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -11662,21 +11670,21 @@
         <v>267</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="C40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -11684,13 +11692,13 @@
         <v>270</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -11698,10 +11706,10 @@
         <v>272</v>
       </c>
       <c r="B42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -11709,10 +11717,10 @@
         <v>274</v>
       </c>
       <c r="B43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -11720,13 +11728,13 @@
         <v>276</v>
       </c>
       <c r="B44" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C44" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D44" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -11734,10 +11742,10 @@
         <v>278</v>
       </c>
       <c r="B45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -11745,10 +11753,10 @@
         <v>280</v>
       </c>
       <c r="B46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -11756,10 +11764,10 @@
         <v>282</v>
       </c>
       <c r="B47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -11767,10 +11775,10 @@
         <v>284</v>
       </c>
       <c r="B48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -11778,13 +11786,13 @@
         <v>286</v>
       </c>
       <c r="B49" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -11792,10 +11800,10 @@
         <v>288</v>
       </c>
       <c r="B50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -11803,10 +11811,10 @@
         <v>290</v>
       </c>
       <c r="B51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -11814,10 +11822,10 @@
         <v>292</v>
       </c>
       <c r="B52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -11825,10 +11833,10 @@
         <v>294</v>
       </c>
       <c r="B53" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -11836,10 +11844,10 @@
         <v>296</v>
       </c>
       <c r="B54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -11847,10 +11855,10 @@
         <v>298</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -11858,13 +11866,13 @@
         <v>300</v>
       </c>
       <c r="B56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -11872,10 +11880,10 @@
         <v>302</v>
       </c>
       <c r="B57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -11883,10 +11891,10 @@
         <v>304</v>
       </c>
       <c r="B58" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C58" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -11894,10 +11902,10 @@
         <v>306</v>
       </c>
       <c r="B59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -11905,10 +11913,10 @@
         <v>308</v>
       </c>
       <c r="B60" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C60" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -11916,10 +11924,10 @@
         <v>310</v>
       </c>
       <c r="B61" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -11927,10 +11935,10 @@
         <v>312</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -11938,10 +11946,10 @@
         <v>314</v>
       </c>
       <c r="B63" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -11949,10 +11957,10 @@
         <v>316</v>
       </c>
       <c r="B64" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -11960,10 +11968,10 @@
         <v>318</v>
       </c>
       <c r="B65" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -11971,10 +11979,10 @@
         <v>320</v>
       </c>
       <c r="B66" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -11982,10 +11990,10 @@
         <v>322</v>
       </c>
       <c r="B67" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -11993,10 +12001,10 @@
         <v>324</v>
       </c>
       <c r="B68" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -12004,10 +12012,10 @@
         <v>326</v>
       </c>
       <c r="B69" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -12015,10 +12023,10 @@
         <v>328</v>
       </c>
       <c r="B70" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -12026,10 +12034,10 @@
         <v>330</v>
       </c>
       <c r="B71" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -12037,10 +12045,10 @@
         <v>332</v>
       </c>
       <c r="B72" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -12048,10 +12056,10 @@
         <v>334</v>
       </c>
       <c r="B73" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C73" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -12059,10 +12067,10 @@
         <v>336</v>
       </c>
       <c r="B74" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -12070,10 +12078,10 @@
         <v>338</v>
       </c>
       <c r="B75" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -12081,10 +12089,10 @@
         <v>340</v>
       </c>
       <c r="B76" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C76" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -12092,21 +12100,21 @@
         <v>342</v>
       </c>
       <c r="B77" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C77" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="C78" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -12114,10 +12122,10 @@
         <v>345</v>
       </c>
       <c r="B79" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C79" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
